--- a/Lab 7 Data.xlsx
+++ b/Lab 7 Data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcmehrtens/Documents/Aerospace Undergrad/07 - Spring 2023/AER E 322/AER-E-322-lab-07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EC7875-450B-1F47-8780-3B790AE20C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88107C42-1437-9D45-90C7-7B09638A4F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="2340" windowWidth="28040" windowHeight="17280" xr2:uid="{BEA0079E-86C9-B440-A2B3-E33B59875360}"/>
+    <workbookView xWindow="2200" yWindow="820" windowWidth="28040" windowHeight="17280" xr2:uid="{BEA0079E-86C9-B440-A2B3-E33B59875360}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,8 +61,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,13 +109,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" t="s">
         <v>4</v>
       </c>
@@ -489,34 +489,34 @@
       <c r="G2">
         <v>-106.5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <f>ABS((G2-F2)/G2)</f>
         <v>0.24882629107981222</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>29.5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>-128</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>-124</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f t="shared" si="0"/>
         <v>-126</v>
       </c>
-      <c r="G3" s="4">
-        <v>-142.80000000000001</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="3">
+        <v>-147.69999999999999</v>
+      </c>
+      <c r="H3" s="4">
         <f t="shared" ref="H3:H6" si="1">ABS((G3-F3)/G3)</f>
-        <v>0.11764705882352948</v>
+        <v>0.14691943127962079</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -539,7 +539,7 @@
       <c r="G4">
         <v>-60.98</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
         <v>0.10134470318137094</v>
       </c>
@@ -567,7 +567,7 @@
       <c r="G5">
         <v>-92.58</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>9.1452437531504005E-3</v>
       </c>
@@ -595,7 +595,7 @@
       <c r="G6">
         <v>-148.1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>0.31397704253882502</v>
       </c>
